--- a/biology/Zoologie/Berlandina/Berlandina.xlsx
+++ b/biology/Zoologie/Berlandina/Berlandina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Berlandina est un genre d'araignées aranéomorphes, de la famille des Gnaphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Berlandina est un genre d'araignées aranéomorphes, de la famille des Gnaphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie, en Afrique et en Europe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie, en Afrique et en Europe.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 31/03/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 31/03/2024) :
 Berlandina afghana Denis, 1958
 Berlandina apscheronica Dunin, 1984
 Berlandina artaxerxes Zamani, Chatzaki, Esyunin &amp; Marusik, 2021
@@ -613,9 +629,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Berlandia[2] Dalmas, 1921, préoccupé par Berlandia Lessert, 1921, a été remplacé par Berlandina par Dalmas en 1922[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Berlandia Dalmas, 1921, préoccupé par Berlandia Lessert, 1921, a été remplacé par Berlandina par Dalmas en 1922.
 </t>
         </is>
       </c>
@@ -644,9 +662,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de l'entomologiste et arachnologiste français Lucien Berland[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de l'entomologiste et arachnologiste français Lucien Berland.
 </t>
         </is>
       </c>
@@ -675,7 +695,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dalmas, 1922 : « Catalogue des araignées récoltées par le Marquis G. Doria dans l'ile Giglio (Archipel toscan). » Annali del Museo civico di storia naturale di Genova, vol. 50, p. 79-96.
 Dalmas, 1921 : « Monographie des araignées de la section des Pterotricha (Aran. Gnaphosidae). » Annales de la Société Entomologique de France, vol. 89, p. 233-328 (texte intégral).</t>
